--- a/_docs/stations.xlsx
+++ b/_docs/stations.xlsx
@@ -4,13 +4,17 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="31340" yWindow="0" windowWidth="33000" windowHeight="17640" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22660" windowHeight="17220" tabRatio="500" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="all zones - text" sheetId="9" r:id="rId1"/>
     <sheet name="rail only txt" sheetId="11" r:id="rId2"/>
-    <sheet name="Southeastern - draft" sheetId="12" r:id="rId3"/>
+    <sheet name="Southeastern" sheetId="12" r:id="rId3"/>
     <sheet name="Southern" sheetId="13" r:id="rId4"/>
+    <sheet name="Great Northern" sheetId="14" r:id="rId5"/>
+    <sheet name="South West Trains" sheetId="15" r:id="rId6"/>
+    <sheet name="Abellio Greater Anglia" sheetId="16" r:id="rId7"/>
+    <sheet name="First Great Western" sheetId="17" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'all zones - text'!$A$1:$D$1</definedName>
@@ -26,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2429" uniqueCount="1110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3345" uniqueCount="1870">
   <si>
     <t>Station</t>
   </si>
@@ -3356,6 +3360,2286 @@
   </si>
   <si>
     <t xml:space="preserve">Worthing </t>
+  </si>
+  <si>
+    <t>Wells-next-the-Sea</t>
+  </si>
+  <si>
+    <t>Burnham Market</t>
+  </si>
+  <si>
+    <t>Hunstanton</t>
+  </si>
+  <si>
+    <t>Dersingham</t>
+  </si>
+  <si>
+    <t>Sandringham</t>
+  </si>
+  <si>
+    <t>Fakenham</t>
+  </si>
+  <si>
+    <t>KING’S LYNN</t>
+  </si>
+  <si>
+    <t>Watlington</t>
+  </si>
+  <si>
+    <t>Downham Market</t>
+  </si>
+  <si>
+    <t>Littleport</t>
+  </si>
+  <si>
+    <t>ELY</t>
+  </si>
+  <si>
+    <t>Waterbeach</t>
+  </si>
+  <si>
+    <t>CAMBRIDGE</t>
+  </si>
+  <si>
+    <t>Wisbech</t>
+  </si>
+  <si>
+    <t>St Ives</t>
+  </si>
+  <si>
+    <t>PETERBOROUGH</t>
+  </si>
+  <si>
+    <t>Huntingdon</t>
+  </si>
+  <si>
+    <t>St Neots</t>
+  </si>
+  <si>
+    <t>Sandy</t>
+  </si>
+  <si>
+    <t>Biggleswade</t>
+  </si>
+  <si>
+    <t>Arlesey</t>
+  </si>
+  <si>
+    <t>Foxton</t>
+  </si>
+  <si>
+    <t>Shepreth</t>
+  </si>
+  <si>
+    <t>Royston</t>
+  </si>
+  <si>
+    <t>Ashwell &amp; Morden</t>
+  </si>
+  <si>
+    <t>Baldock</t>
+  </si>
+  <si>
+    <t>Letchworth Garden City</t>
+  </si>
+  <si>
+    <t>HITCHIN</t>
+  </si>
+  <si>
+    <t>STEVENAGE</t>
+  </si>
+  <si>
+    <t>Knebworth</t>
+  </si>
+  <si>
+    <t>Welwyn North</t>
+  </si>
+  <si>
+    <t>Watton-at-Stone</t>
+  </si>
+  <si>
+    <t>WELWYN GARDEN CITY</t>
+  </si>
+  <si>
+    <t>HERTFORD NORTH</t>
+  </si>
+  <si>
+    <t>Hatfield</t>
+  </si>
+  <si>
+    <t>St Albans City</t>
+  </si>
+  <si>
+    <t>Welham Green</t>
+  </si>
+  <si>
+    <t>Bayford</t>
+  </si>
+  <si>
+    <t>Brookmans Park</t>
+  </si>
+  <si>
+    <t>Cuffley</t>
+  </si>
+  <si>
+    <t>Potters Bar</t>
+  </si>
+  <si>
+    <t>New Barnett</t>
+  </si>
+  <si>
+    <t>FINSBURY PARK</t>
+  </si>
+  <si>
+    <t>MOORGATE</t>
+  </si>
+  <si>
+    <t>KING’S CROSS</t>
+  </si>
+  <si>
+    <t>Addlestone</t>
+  </si>
+  <si>
+    <t>Aldershot</t>
+  </si>
+  <si>
+    <t>Alton</t>
+  </si>
+  <si>
+    <t>Andover</t>
+  </si>
+  <si>
+    <t>Ascot</t>
+  </si>
+  <si>
+    <t>Ash</t>
+  </si>
+  <si>
+    <t>Ash Vale</t>
+  </si>
+  <si>
+    <t>Ashford (Surrey)</t>
+  </si>
+  <si>
+    <t>Ashtead</t>
+  </si>
+  <si>
+    <t>Ashurst New Forest</t>
+  </si>
+  <si>
+    <t>Axminster</t>
+  </si>
+  <si>
+    <t>Bagshot</t>
+  </si>
+  <si>
+    <t>Barnham</t>
+  </si>
+  <si>
+    <t>Basingstoke</t>
+  </si>
+  <si>
+    <t>Bath Spa</t>
+  </si>
+  <si>
+    <t>Beaulieu Road</t>
+  </si>
+  <si>
+    <t>Bedhampton</t>
+  </si>
+  <si>
+    <t>Bentley</t>
+  </si>
+  <si>
+    <t>Bitterne</t>
+  </si>
+  <si>
+    <t>Bookham</t>
+  </si>
+  <si>
+    <t>Botley</t>
+  </si>
+  <si>
+    <t>Bournemouth</t>
+  </si>
+  <si>
+    <t>Boxhill &amp;amp; Westhumble</t>
+  </si>
+  <si>
+    <t>Bracknell</t>
+  </si>
+  <si>
+    <t>Bradford-on-Avon</t>
+  </si>
+  <si>
+    <t>Brading</t>
+  </si>
+  <si>
+    <t>Branksome</t>
+  </si>
+  <si>
+    <t>Bristol Temple Meads</t>
+  </si>
+  <si>
+    <t>Brockenhurst</t>
+  </si>
+  <si>
+    <t>Brookwood</t>
+  </si>
+  <si>
+    <t>Bursledon</t>
+  </si>
+  <si>
+    <t>Byfleet &amp;amp; New Haw</t>
+  </si>
+  <si>
+    <t>Camberley</t>
+  </si>
+  <si>
+    <t>Chandlers Ford</t>
+  </si>
+  <si>
+    <t>Chertsey</t>
+  </si>
+  <si>
+    <t>Chichester</t>
+  </si>
+  <si>
+    <t>Christchurch</t>
+  </si>
+  <si>
+    <t>Clandon</t>
+  </si>
+  <si>
+    <t>Claygate</t>
+  </si>
+  <si>
+    <t>Cobham &amp;amp; Stoke d'Abernon</t>
+  </si>
+  <si>
+    <t>Cosham</t>
+  </si>
+  <si>
+    <t>Crewkerne</t>
+  </si>
+  <si>
+    <t>Datchet</t>
+  </si>
+  <si>
+    <t>Dean</t>
+  </si>
+  <si>
+    <t>Dorchester South</t>
+  </si>
+  <si>
+    <t>Dorking</t>
+  </si>
+  <si>
+    <t>Earley</t>
+  </si>
+  <si>
+    <t>Eastleigh</t>
+  </si>
+  <si>
+    <t>Effingham Junction</t>
+  </si>
+  <si>
+    <t>Egham</t>
+  </si>
+  <si>
+    <t>Epsom</t>
+  </si>
+  <si>
+    <t>Esher</t>
+  </si>
+  <si>
+    <t>Exeter Central</t>
+  </si>
+  <si>
+    <t>Exeter St David's</t>
+  </si>
+  <si>
+    <t>Fareham</t>
+  </si>
+  <si>
+    <t>Farnborough (Main)</t>
+  </si>
+  <si>
+    <t>Farncombe</t>
+  </si>
+  <si>
+    <t>Farnham</t>
+  </si>
+  <si>
+    <t>Feniton</t>
+  </si>
+  <si>
+    <t>Fleet</t>
+  </si>
+  <si>
+    <t>Fratton</t>
+  </si>
+  <si>
+    <t>Frimley</t>
+  </si>
+  <si>
+    <t>Gillingham (Dorset)</t>
+  </si>
+  <si>
+    <t>Godalming</t>
+  </si>
+  <si>
+    <t>Grateley</t>
+  </si>
+  <si>
+    <t>Guildford</t>
+  </si>
+  <si>
+    <t>Hamble</t>
+  </si>
+  <si>
+    <t>Hamworthy</t>
+  </si>
+  <si>
+    <t>Haslemere</t>
+  </si>
+  <si>
+    <t>Havant</t>
+  </si>
+  <si>
+    <t>Hedge End</t>
+  </si>
+  <si>
+    <t>Hersham</t>
+  </si>
+  <si>
+    <t>Hilsea</t>
+  </si>
+  <si>
+    <t>Hinchley Wood</t>
+  </si>
+  <si>
+    <t>Hinton Admiral</t>
+  </si>
+  <si>
+    <t>Holton Heath</t>
+  </si>
+  <si>
+    <t>Honiton</t>
+  </si>
+  <si>
+    <t>Hook</t>
+  </si>
+  <si>
+    <t>Horsley</t>
+  </si>
+  <si>
+    <t>Hove</t>
+  </si>
+  <si>
+    <t>Kempton Park</t>
+  </si>
+  <si>
+    <t>Lake</t>
+  </si>
+  <si>
+    <t>Leatherhead</t>
+  </si>
+  <si>
+    <t>Liphook</t>
+  </si>
+  <si>
+    <t>Liss</t>
+  </si>
+  <si>
+    <t>London Road (Guildford)</t>
+  </si>
+  <si>
+    <t>London Waterloo</t>
+  </si>
+  <si>
+    <t>Longcross</t>
+  </si>
+  <si>
+    <t>Lymington Pier</t>
+  </si>
+  <si>
+    <t>Lymington Town</t>
+  </si>
+  <si>
+    <t>Martins Heron</t>
+  </si>
+  <si>
+    <t>Micheldever</t>
+  </si>
+  <si>
+    <t>Milford (Surrey)</t>
+  </si>
+  <si>
+    <t>Millbrook (Hants)</t>
+  </si>
+  <si>
+    <t>Moreton (Dorset)</t>
+  </si>
+  <si>
+    <t>Mottisfont &amp;amp; Dunbridge</t>
+  </si>
+  <si>
+    <t>Netley</t>
+  </si>
+  <si>
+    <t>New Milton</t>
+  </si>
+  <si>
+    <t>Overton</t>
+  </si>
+  <si>
+    <t>Oxshott</t>
+  </si>
+  <si>
+    <t>Parkstone (Dorset)</t>
+  </si>
+  <si>
+    <t>Petersfield</t>
+  </si>
+  <si>
+    <t>Pinhoe</t>
+  </si>
+  <si>
+    <t>Pokesdown</t>
+  </si>
+  <si>
+    <t>Poole</t>
+  </si>
+  <si>
+    <t>Portchester</t>
+  </si>
+  <si>
+    <t>Portsmouth &amp;amp; Southsea</t>
+  </si>
+  <si>
+    <t>Portsmouth Harbour</t>
+  </si>
+  <si>
+    <t>Reading</t>
+  </si>
+  <si>
+    <t>Romsey</t>
+  </si>
+  <si>
+    <t>Rowlands Castle</t>
+  </si>
+  <si>
+    <t>Ryde  St Johns Road</t>
+  </si>
+  <si>
+    <t>Ryde Esplanade</t>
+  </si>
+  <si>
+    <t>Ryde Pier Head</t>
+  </si>
+  <si>
+    <t>Salisbury</t>
+  </si>
+  <si>
+    <t>Sandown</t>
+  </si>
+  <si>
+    <t>Shanklin</t>
+  </si>
+  <si>
+    <t>Shawford</t>
+  </si>
+  <si>
+    <t>Shepperton</t>
+  </si>
+  <si>
+    <t>Sherborne</t>
+  </si>
+  <si>
+    <t>Sholing</t>
+  </si>
+  <si>
+    <t>Shoreham-by-Sea</t>
+  </si>
+  <si>
+    <t>Smallbrook Junction</t>
+  </si>
+  <si>
+    <t>Southampton Airpt Parkway</t>
+  </si>
+  <si>
+    <t>Southampton Central</t>
+  </si>
+  <si>
+    <t>St Denys</t>
+  </si>
+  <si>
+    <t>St Margarets (Gr London)</t>
+  </si>
+  <si>
+    <t>Staines</t>
+  </si>
+  <si>
+    <t>Sunbury</t>
+  </si>
+  <si>
+    <t>Sunningdale</t>
+  </si>
+  <si>
+    <t>Sunnymeads</t>
+  </si>
+  <si>
+    <t>Swanwick</t>
+  </si>
+  <si>
+    <t>Sway</t>
+  </si>
+  <si>
+    <t>Swaythling</t>
+  </si>
+  <si>
+    <t>Templecombe</t>
+  </si>
+  <si>
+    <t>Tisbury</t>
+  </si>
+  <si>
+    <t>Totton</t>
+  </si>
+  <si>
+    <t>Trowbridge</t>
+  </si>
+  <si>
+    <t>Upper Halliford</t>
+  </si>
+  <si>
+    <t>Upwey</t>
+  </si>
+  <si>
+    <t>Virginia Water</t>
+  </si>
+  <si>
+    <t>Walton-on-Thames</t>
+  </si>
+  <si>
+    <t>Wanborough</t>
+  </si>
+  <si>
+    <t>Wareham</t>
+  </si>
+  <si>
+    <t>Warminster</t>
+  </si>
+  <si>
+    <t>West Byfleet</t>
+  </si>
+  <si>
+    <t>Westbury (Wilts)</t>
+  </si>
+  <si>
+    <t>Weybridge</t>
+  </si>
+  <si>
+    <t>Weymouth</t>
+  </si>
+  <si>
+    <t>Whimple</t>
+  </si>
+  <si>
+    <t>Whitchurch (Hants)</t>
+  </si>
+  <si>
+    <t>Winchester</t>
+  </si>
+  <si>
+    <t>Winchfield</t>
+  </si>
+  <si>
+    <t>Windsor &amp;amp; Eton Riverside</t>
+  </si>
+  <si>
+    <t>Winnersh</t>
+  </si>
+  <si>
+    <t>Winnersh Triangle</t>
+  </si>
+  <si>
+    <t>Witley</t>
+  </si>
+  <si>
+    <t>Woking</t>
+  </si>
+  <si>
+    <t>Wokingham</t>
+  </si>
+  <si>
+    <t>Wool</t>
+  </si>
+  <si>
+    <t>Woolston</t>
+  </si>
+  <si>
+    <t>Worplesdon</t>
+  </si>
+  <si>
+    <t>Worthing</t>
+  </si>
+  <si>
+    <t>Wraysbury</t>
+  </si>
+  <si>
+    <t>ASN</t>
+  </si>
+  <si>
+    <t>AHT</t>
+  </si>
+  <si>
+    <t>AON</t>
+  </si>
+  <si>
+    <t>ADV</t>
+  </si>
+  <si>
+    <t>ACT</t>
+  </si>
+  <si>
+    <t>ASH</t>
+  </si>
+  <si>
+    <t>AHV</t>
+  </si>
+  <si>
+    <t>AFS</t>
+  </si>
+  <si>
+    <t>AHD</t>
+  </si>
+  <si>
+    <t>ANF</t>
+  </si>
+  <si>
+    <t>AXM</t>
+  </si>
+  <si>
+    <t>BAG</t>
+  </si>
+  <si>
+    <t>BNS</t>
+  </si>
+  <si>
+    <t>BNI</t>
+  </si>
+  <si>
+    <t>BAA</t>
+  </si>
+  <si>
+    <t>BSK</t>
+  </si>
+  <si>
+    <t>BTH</t>
+  </si>
+  <si>
+    <t>BEU</t>
+  </si>
+  <si>
+    <t>BDH</t>
+  </si>
+  <si>
+    <t>BTY</t>
+  </si>
+  <si>
+    <t>BRS</t>
+  </si>
+  <si>
+    <t>BTE</t>
+  </si>
+  <si>
+    <t>BKA</t>
+  </si>
+  <si>
+    <t>BOE</t>
+  </si>
+  <si>
+    <t>BMH</t>
+  </si>
+  <si>
+    <t>BXW</t>
+  </si>
+  <si>
+    <t>BCE</t>
+  </si>
+  <si>
+    <t>BOA</t>
+  </si>
+  <si>
+    <t>BDN</t>
+  </si>
+  <si>
+    <t>BSM</t>
+  </si>
+  <si>
+    <t>BFD</t>
+  </si>
+  <si>
+    <t>BTN</t>
+  </si>
+  <si>
+    <t>BRI</t>
+  </si>
+  <si>
+    <t>BCU</t>
+  </si>
+  <si>
+    <t>BKO</t>
+  </si>
+  <si>
+    <t>BUO</t>
+  </si>
+  <si>
+    <t>BFN</t>
+  </si>
+  <si>
+    <t>CAM</t>
+  </si>
+  <si>
+    <t>CFR</t>
+  </si>
+  <si>
+    <t>CHY</t>
+  </si>
+  <si>
+    <t>CSN</t>
+  </si>
+  <si>
+    <t>CSS</t>
+  </si>
+  <si>
+    <t>CCH</t>
+  </si>
+  <si>
+    <t>CHK</t>
+  </si>
+  <si>
+    <t>CHR</t>
+  </si>
+  <si>
+    <t>CLA</t>
+  </si>
+  <si>
+    <t>CLJ</t>
+  </si>
+  <si>
+    <t>CLG</t>
+  </si>
+  <si>
+    <t>CSD</t>
+  </si>
+  <si>
+    <t>CSA</t>
+  </si>
+  <si>
+    <t>CKN</t>
+  </si>
+  <si>
+    <t>DAT</t>
+  </si>
+  <si>
+    <t>DEN</t>
+  </si>
+  <si>
+    <t>DCH</t>
+  </si>
+  <si>
+    <t>DKG</t>
+  </si>
+  <si>
+    <t>EAR</t>
+  </si>
+  <si>
+    <t>EAD</t>
+  </si>
+  <si>
+    <t>ESL</t>
+  </si>
+  <si>
+    <t>EFF</t>
+  </si>
+  <si>
+    <t>EGH</t>
+  </si>
+  <si>
+    <t>EPS</t>
+  </si>
+  <si>
+    <t>ESH</t>
+  </si>
+  <si>
+    <t>EWW</t>
+  </si>
+  <si>
+    <t>EXC</t>
+  </si>
+  <si>
+    <t>EXD</t>
+  </si>
+  <si>
+    <t>FRM</t>
+  </si>
+  <si>
+    <t>FNB</t>
+  </si>
+  <si>
+    <t>FNC</t>
+  </si>
+  <si>
+    <t>FNH</t>
+  </si>
+  <si>
+    <t>FEL</t>
+  </si>
+  <si>
+    <t>FNT</t>
+  </si>
+  <si>
+    <t>FLE</t>
+  </si>
+  <si>
+    <t>FTN</t>
+  </si>
+  <si>
+    <t>FML</t>
+  </si>
+  <si>
+    <t>FLW</t>
+  </si>
+  <si>
+    <t>GIL</t>
+  </si>
+  <si>
+    <t>GOD</t>
+  </si>
+  <si>
+    <t>GRT</t>
+  </si>
+  <si>
+    <t>GLD</t>
+  </si>
+  <si>
+    <t>HME</t>
+  </si>
+  <si>
+    <t>HMP</t>
+  </si>
+  <si>
+    <t>HMC</t>
+  </si>
+  <si>
+    <t>HMW</t>
+  </si>
+  <si>
+    <t>HAM</t>
+  </si>
+  <si>
+    <t>HSL</t>
+  </si>
+  <si>
+    <t>HAV</t>
+  </si>
+  <si>
+    <t>HDE</t>
+  </si>
+  <si>
+    <t>HER</t>
+  </si>
+  <si>
+    <t>HLS</t>
+  </si>
+  <si>
+    <t>HYW</t>
+  </si>
+  <si>
+    <t>HNA</t>
+  </si>
+  <si>
+    <t>HOL</t>
+  </si>
+  <si>
+    <t>HON</t>
+  </si>
+  <si>
+    <t>HOK</t>
+  </si>
+  <si>
+    <t>HSY</t>
+  </si>
+  <si>
+    <t>HOU</t>
+  </si>
+  <si>
+    <t>HOV</t>
+  </si>
+  <si>
+    <t>ISL</t>
+  </si>
+  <si>
+    <t>KMP</t>
+  </si>
+  <si>
+    <t>KWB</t>
+  </si>
+  <si>
+    <t>KNG</t>
+  </si>
+  <si>
+    <t>LKE</t>
+  </si>
+  <si>
+    <t>LHD</t>
+  </si>
+  <si>
+    <t>LIP</t>
+  </si>
+  <si>
+    <t>LIS</t>
+  </si>
+  <si>
+    <t>LRD</t>
+  </si>
+  <si>
+    <t>WAT</t>
+  </si>
+  <si>
+    <t>LNG</t>
+  </si>
+  <si>
+    <t>LYP</t>
+  </si>
+  <si>
+    <t>LYT</t>
+  </si>
+  <si>
+    <t>MAL</t>
+  </si>
+  <si>
+    <t>MAO</t>
+  </si>
+  <si>
+    <t>MIC</t>
+  </si>
+  <si>
+    <t>MLF</t>
+  </si>
+  <si>
+    <t>MBK</t>
+  </si>
+  <si>
+    <t>MTN</t>
+  </si>
+  <si>
+    <t>MTL</t>
+  </si>
+  <si>
+    <t>MOT</t>
+  </si>
+  <si>
+    <t>DBG</t>
+  </si>
+  <si>
+    <t>NTL</t>
+  </si>
+  <si>
+    <t>NEM</t>
+  </si>
+  <si>
+    <t>NWM</t>
+  </si>
+  <si>
+    <t>NBT</t>
+  </si>
+  <si>
+    <t>NSH</t>
+  </si>
+  <si>
+    <t>OVR</t>
+  </si>
+  <si>
+    <t>OXS</t>
+  </si>
+  <si>
+    <t>PKS</t>
+  </si>
+  <si>
+    <t>PTR</t>
+  </si>
+  <si>
+    <t>PIN</t>
+  </si>
+  <si>
+    <t>POK</t>
+  </si>
+  <si>
+    <t>POO</t>
+  </si>
+  <si>
+    <t>PTC</t>
+  </si>
+  <si>
+    <t>PMS</t>
+  </si>
+  <si>
+    <t>PMH</t>
+  </si>
+  <si>
+    <t>PUT</t>
+  </si>
+  <si>
+    <t>QRB</t>
+  </si>
+  <si>
+    <t>RAY</t>
+  </si>
+  <si>
+    <t>RDG</t>
+  </si>
+  <si>
+    <t>RDB</t>
+  </si>
+  <si>
+    <t>RMD</t>
+  </si>
+  <si>
+    <t>ROM</t>
+  </si>
+  <si>
+    <t>RLN</t>
+  </si>
+  <si>
+    <t>RYR</t>
+  </si>
+  <si>
+    <t>RYD</t>
+  </si>
+  <si>
+    <t>RYP</t>
+  </si>
+  <si>
+    <t>SAL</t>
+  </si>
+  <si>
+    <t>SAN</t>
+  </si>
+  <si>
+    <t>SHN</t>
+  </si>
+  <si>
+    <t>SHW</t>
+  </si>
+  <si>
+    <t>SHP</t>
+  </si>
+  <si>
+    <t>SHE</t>
+  </si>
+  <si>
+    <t>SHO</t>
+  </si>
+  <si>
+    <t>SSE</t>
+  </si>
+  <si>
+    <t>SAB</t>
+  </si>
+  <si>
+    <t>SOA</t>
+  </si>
+  <si>
+    <t>SOU</t>
+  </si>
+  <si>
+    <t>SDN</t>
+  </si>
+  <si>
+    <t>SMG</t>
+  </si>
+  <si>
+    <t>SNS</t>
+  </si>
+  <si>
+    <t>SNL</t>
+  </si>
+  <si>
+    <t>STW</t>
+  </si>
+  <si>
+    <t>SUU</t>
+  </si>
+  <si>
+    <t>SNG</t>
+  </si>
+  <si>
+    <t>SNY</t>
+  </si>
+  <si>
+    <t>SUR</t>
+  </si>
+  <si>
+    <t>SNW</t>
+  </si>
+  <si>
+    <t>SWY</t>
+  </si>
+  <si>
+    <t>SWG</t>
+  </si>
+  <si>
+    <t>SYL</t>
+  </si>
+  <si>
+    <t>TED</t>
+  </si>
+  <si>
+    <t>TMC</t>
+  </si>
+  <si>
+    <t>THD</t>
+  </si>
+  <si>
+    <t>TIS</t>
+  </si>
+  <si>
+    <t>TOL</t>
+  </si>
+  <si>
+    <t>TTN</t>
+  </si>
+  <si>
+    <t>TRO</t>
+  </si>
+  <si>
+    <t>TWI</t>
+  </si>
+  <si>
+    <t>UPH</t>
+  </si>
+  <si>
+    <t>UPW</t>
+  </si>
+  <si>
+    <t>VXH</t>
+  </si>
+  <si>
+    <t>VIR</t>
+  </si>
+  <si>
+    <t>WAL</t>
+  </si>
+  <si>
+    <t>WAN</t>
+  </si>
+  <si>
+    <t>WNT</t>
+  </si>
+  <si>
+    <t>WRM</t>
+  </si>
+  <si>
+    <t>WMN</t>
+  </si>
+  <si>
+    <t>WBY</t>
+  </si>
+  <si>
+    <t>WCY</t>
+  </si>
+  <si>
+    <t>WSB</t>
+  </si>
+  <si>
+    <t>WYB</t>
+  </si>
+  <si>
+    <t>WEY</t>
+  </si>
+  <si>
+    <t>WHM</t>
+  </si>
+  <si>
+    <t>WCH</t>
+  </si>
+  <si>
+    <t>WTN</t>
+  </si>
+  <si>
+    <t>WIM</t>
+  </si>
+  <si>
+    <t>WIN</t>
+  </si>
+  <si>
+    <t>WNF</t>
+  </si>
+  <si>
+    <t>WNR</t>
+  </si>
+  <si>
+    <t>WNS</t>
+  </si>
+  <si>
+    <t>WTI</t>
+  </si>
+  <si>
+    <t>WTY</t>
+  </si>
+  <si>
+    <t>WOK</t>
+  </si>
+  <si>
+    <t>WKM</t>
+  </si>
+  <si>
+    <t>WOO</t>
+  </si>
+  <si>
+    <t>WLS</t>
+  </si>
+  <si>
+    <t>WCP</t>
+  </si>
+  <si>
+    <t>WPL</t>
+  </si>
+  <si>
+    <t>WRH</t>
+  </si>
+  <si>
+    <t>WRY</t>
+  </si>
+  <si>
+    <t>Acle</t>
+  </si>
+  <si>
+    <t>Alresford Essex</t>
+  </si>
+  <si>
+    <t>Althorne</t>
+  </si>
+  <si>
+    <t>Attleborough</t>
+  </si>
+  <si>
+    <t>Audley End</t>
+  </si>
+  <si>
+    <t>Battlesbridge</t>
+  </si>
+  <si>
+    <t>Beccles</t>
+  </si>
+  <si>
+    <t>Berney Arms</t>
+  </si>
+  <si>
+    <t>Billericay</t>
+  </si>
+  <si>
+    <t>Bishops Stortford</t>
+  </si>
+  <si>
+    <t>Braintree</t>
+  </si>
+  <si>
+    <t>Braintree Freeport</t>
+  </si>
+  <si>
+    <t>Brampton Suffolk</t>
+  </si>
+  <si>
+    <t>Brandon</t>
+  </si>
+  <si>
+    <t>Brundall</t>
+  </si>
+  <si>
+    <t>Brundall Gardens</t>
+  </si>
+  <si>
+    <t>Buckenham</t>
+  </si>
+  <si>
+    <t>Bures</t>
+  </si>
+  <si>
+    <t>Burnham-on-Crouch</t>
+  </si>
+  <si>
+    <t>Bury St Edmunds</t>
+  </si>
+  <si>
+    <t>Cambridge</t>
+  </si>
+  <si>
+    <t>Cantley</t>
+  </si>
+  <si>
+    <t>Chappel &amp;amp; Wakes Colne</t>
+  </si>
+  <si>
+    <t>Chelmsford</t>
+  </si>
+  <si>
+    <t>Clacton-On-Sea</t>
+  </si>
+  <si>
+    <t>Colchester</t>
+  </si>
+  <si>
+    <t>Colchester Town</t>
+  </si>
+  <si>
+    <t>Cressing</t>
+  </si>
+  <si>
+    <t>Cromer</t>
+  </si>
+  <si>
+    <t>Darsham</t>
+  </si>
+  <si>
+    <t>Derby Road</t>
+  </si>
+  <si>
+    <t>Diss</t>
+  </si>
+  <si>
+    <t>Dovercourt</t>
+  </si>
+  <si>
+    <t>Dullingham</t>
+  </si>
+  <si>
+    <t>Eccles Road</t>
+  </si>
+  <si>
+    <t>Elmswell</t>
+  </si>
+  <si>
+    <t>Elsenham</t>
+  </si>
+  <si>
+    <t>Ely</t>
+  </si>
+  <si>
+    <t>Felixstowe</t>
+  </si>
+  <si>
+    <t>Frinton-On-Sea</t>
+  </si>
+  <si>
+    <t>Great Bentley</t>
+  </si>
+  <si>
+    <t>Great Chesterford</t>
+  </si>
+  <si>
+    <t>Great Yarmouth</t>
+  </si>
+  <si>
+    <t>Gunton</t>
+  </si>
+  <si>
+    <t>Haddiscoe</t>
+  </si>
+  <si>
+    <t>Halesworth</t>
+  </si>
+  <si>
+    <t>Harling Road</t>
+  </si>
+  <si>
+    <t>Harlow Mill</t>
+  </si>
+  <si>
+    <t>Harlow Town</t>
+  </si>
+  <si>
+    <t>Harwich International</t>
+  </si>
+  <si>
+    <t>Harwich Town</t>
+  </si>
+  <si>
+    <t>Hatfield Peverel</t>
+  </si>
+  <si>
+    <t>Hertford East</t>
+  </si>
+  <si>
+    <t>Hockley</t>
+  </si>
+  <si>
+    <t>Hoveton &amp;amp; Wroxham</t>
+  </si>
+  <si>
+    <t>Hythe</t>
+  </si>
+  <si>
+    <t>Ingatestone</t>
+  </si>
+  <si>
+    <t>Ipswich</t>
+  </si>
+  <si>
+    <t>Kelvedon</t>
+  </si>
+  <si>
+    <t>Kennett</t>
+  </si>
+  <si>
+    <t>Kings Lynn</t>
+  </si>
+  <si>
+    <t>Kirby Cross</t>
+  </si>
+  <si>
+    <t>Lakenheath</t>
+  </si>
+  <si>
+    <t>Lingwood</t>
+  </si>
+  <si>
+    <t>London Liverpool Street</t>
+  </si>
+  <si>
+    <t>Lowestoft</t>
+  </si>
+  <si>
+    <t>Manningtree</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>Marks Tey</t>
+  </si>
+  <si>
+    <t>Melton</t>
+  </si>
+  <si>
+    <t>Mistley</t>
+  </si>
+  <si>
+    <t>Needham Market</t>
+  </si>
+  <si>
+    <t>Newmarket</t>
+  </si>
+  <si>
+    <t>Newport Essex</t>
+  </si>
+  <si>
+    <t>North Fambridge</t>
+  </si>
+  <si>
+    <t>North Walsham</t>
+  </si>
+  <si>
+    <t>Norwich</t>
+  </si>
+  <si>
+    <t>Oulton Broad North</t>
+  </si>
+  <si>
+    <t>Oulton Broad South</t>
+  </si>
+  <si>
+    <t>Peterborough</t>
+  </si>
+  <si>
+    <t>Prittlewell</t>
+  </si>
+  <si>
+    <t>Rayleigh</t>
+  </si>
+  <si>
+    <t>Reedham Norfolk</t>
+  </si>
+  <si>
+    <t>Rochford</t>
+  </si>
+  <si>
+    <t>Roughton Road</t>
+  </si>
+  <si>
+    <t>Roydon</t>
+  </si>
+  <si>
+    <t>Rye House</t>
+  </si>
+  <si>
+    <t>Salhouse</t>
+  </si>
+  <si>
+    <t>Sawbridgeworth</t>
+  </si>
+  <si>
+    <t>Saxmundham</t>
+  </si>
+  <si>
+    <t>Shelford</t>
+  </si>
+  <si>
+    <t>Sheringham</t>
+  </si>
+  <si>
+    <t>Shippea Hill</t>
+  </si>
+  <si>
+    <t>Somerleyton</t>
+  </si>
+  <si>
+    <t>South Woodham Ferrers</t>
+  </si>
+  <si>
+    <t>Southend Airport</t>
+  </si>
+  <si>
+    <t>Southend Victoria</t>
+  </si>
+  <si>
+    <t>Southminster</t>
+  </si>
+  <si>
+    <t>Spooner Row</t>
+  </si>
+  <si>
+    <t>St James Street</t>
+  </si>
+  <si>
+    <t>St Margarets Herts</t>
+  </si>
+  <si>
+    <t>Stansted Airport</t>
+  </si>
+  <si>
+    <t>Stansted Mountfitchet</t>
+  </si>
+  <si>
+    <t>Stowmarket</t>
+  </si>
+  <si>
+    <t>Sudbury</t>
+  </si>
+  <si>
+    <t>Thetford</t>
+  </si>
+  <si>
+    <t>Thorpe-le-Soken</t>
+  </si>
+  <si>
+    <t>Thurston</t>
+  </si>
+  <si>
+    <t>Trimley</t>
+  </si>
+  <si>
+    <t>Upminster Platform 6</t>
+  </si>
+  <si>
+    <t>Walton-On-The-Naze</t>
+  </si>
+  <si>
+    <t>Ware</t>
+  </si>
+  <si>
+    <t>Weeley</t>
+  </si>
+  <si>
+    <t>West Runton</t>
+  </si>
+  <si>
+    <t>Westerfield</t>
+  </si>
+  <si>
+    <t>White Notley</t>
+  </si>
+  <si>
+    <t>Whittlesea</t>
+  </si>
+  <si>
+    <t>Whittlesford Parkway</t>
+  </si>
+  <si>
+    <t>Wickford</t>
+  </si>
+  <si>
+    <t>Wickham Market</t>
+  </si>
+  <si>
+    <t>Witham</t>
+  </si>
+  <si>
+    <t>Wivenhoe</t>
+  </si>
+  <si>
+    <t>Woodbridge</t>
+  </si>
+  <si>
+    <t>Worstead</t>
+  </si>
+  <si>
+    <t>Wrabness</t>
+  </si>
+  <si>
+    <t>Wymondham</t>
+  </si>
+  <si>
+    <t>Aldermaston</t>
+  </si>
+  <si>
+    <t>Appleford</t>
+  </si>
+  <si>
+    <t>Ascott-Under-Wychwood</t>
+  </si>
+  <si>
+    <t>Ashchurch For Tewkesbury</t>
+  </si>
+  <si>
+    <t>Avoncliff</t>
+  </si>
+  <si>
+    <t>Avonmouth</t>
+  </si>
+  <si>
+    <t>Banbury</t>
+  </si>
+  <si>
+    <t>Barnstaple</t>
+  </si>
+  <si>
+    <t>Bedminster</t>
+  </si>
+  <si>
+    <t>Bedwyn</t>
+  </si>
+  <si>
+    <t>Bere Alston</t>
+  </si>
+  <si>
+    <t>Bere Ferrers</t>
+  </si>
+  <si>
+    <t>Betchworth</t>
+  </si>
+  <si>
+    <t>Blackwater</t>
+  </si>
+  <si>
+    <t>Bodmin Parkway</t>
+  </si>
+  <si>
+    <t>Bourne End</t>
+  </si>
+  <si>
+    <t>Bradford-On-Avon</t>
+  </si>
+  <si>
+    <t>Bramley Hants</t>
+  </si>
+  <si>
+    <t>Bridgend</t>
+  </si>
+  <si>
+    <t>Bridgwater</t>
+  </si>
+  <si>
+    <t>Bristol Parkway</t>
+  </si>
+  <si>
+    <t>Bruton</t>
+  </si>
+  <si>
+    <t>Bugle</t>
+  </si>
+  <si>
+    <t>Burnham</t>
+  </si>
+  <si>
+    <t>Calstock</t>
+  </si>
+  <si>
+    <t>Cam &amp;amp; Dursley</t>
+  </si>
+  <si>
+    <t>Camborne</t>
+  </si>
+  <si>
+    <t>Carbis Bay</t>
+  </si>
+  <si>
+    <t>Cardiff Central</t>
+  </si>
+  <si>
+    <t>Carmarthen</t>
+  </si>
+  <si>
+    <t>Castle Cary</t>
+  </si>
+  <si>
+    <t>Causeland</t>
+  </si>
+  <si>
+    <t>Chapelton</t>
+  </si>
+  <si>
+    <t>Charlbury</t>
+  </si>
+  <si>
+    <t>Cheltenham Spa</t>
+  </si>
+  <si>
+    <t>Chetnole</t>
+  </si>
+  <si>
+    <t>Chilworth</t>
+  </si>
+  <si>
+    <t>Chippenham</t>
+  </si>
+  <si>
+    <t>Cholsey</t>
+  </si>
+  <si>
+    <t>Clifton Down</t>
+  </si>
+  <si>
+    <t>Colwall</t>
+  </si>
+  <si>
+    <t>Combe</t>
+  </si>
+  <si>
+    <t>Cookham</t>
+  </si>
+  <si>
+    <t>Coombe</t>
+  </si>
+  <si>
+    <t>Copplestone</t>
+  </si>
+  <si>
+    <t>Crediton</t>
+  </si>
+  <si>
+    <t>Crowthorne</t>
+  </si>
+  <si>
+    <t>Culham</t>
+  </si>
+  <si>
+    <t>Dawlish</t>
+  </si>
+  <si>
+    <t>Dawlish Warren</t>
+  </si>
+  <si>
+    <t>Devonport</t>
+  </si>
+  <si>
+    <t>Didcot Parkway</t>
+  </si>
+  <si>
+    <t>Digby &amp;amp; Sowton</t>
+  </si>
+  <si>
+    <t>Dilton Marsh</t>
+  </si>
+  <si>
+    <t>Dockyard</t>
+  </si>
+  <si>
+    <t>Dorchester West</t>
+  </si>
+  <si>
+    <t>Dorking Deepdene</t>
+  </si>
+  <si>
+    <t>Dorking West</t>
+  </si>
+  <si>
+    <t>Eggesford</t>
+  </si>
+  <si>
+    <t>Evesham</t>
+  </si>
+  <si>
+    <t>Exeter St Davids</t>
+  </si>
+  <si>
+    <t>Exeter St Thomas</t>
+  </si>
+  <si>
+    <t>Exmouth</t>
+  </si>
+  <si>
+    <t>Exton</t>
+  </si>
+  <si>
+    <t>Falmouth Docks</t>
+  </si>
+  <si>
+    <t>Falmouth Town</t>
+  </si>
+  <si>
+    <t>Farnborough North</t>
+  </si>
+  <si>
+    <t>Ferryside</t>
+  </si>
+  <si>
+    <t>Filton Abbey Wood</t>
+  </si>
+  <si>
+    <t>Finstock</t>
+  </si>
+  <si>
+    <t>Freshford</t>
+  </si>
+  <si>
+    <t>Frome</t>
+  </si>
+  <si>
+    <t>Furze Platt</t>
+  </si>
+  <si>
+    <t>Gatwick Airport</t>
+  </si>
+  <si>
+    <t>Gloucester</t>
+  </si>
+  <si>
+    <t>Gomshall</t>
+  </si>
+  <si>
+    <t>Goring &amp;amp; Streatley</t>
+  </si>
+  <si>
+    <t>Great Malvern</t>
+  </si>
+  <si>
+    <t>Gunnislake</t>
+  </si>
+  <si>
+    <t>Hanborough</t>
+  </si>
+  <si>
+    <t>Hayes &amp;amp; Harlington</t>
+  </si>
+  <si>
+    <t>Hayle</t>
+  </si>
+  <si>
+    <t>Henley-On-Thames</t>
+  </si>
+  <si>
+    <t>Hereford</t>
+  </si>
+  <si>
+    <t>Heyford</t>
+  </si>
+  <si>
+    <t>Highbridge &amp;amp; Burnham</t>
+  </si>
+  <si>
+    <t>Honeybourne</t>
+  </si>
+  <si>
+    <t>Hungerford</t>
+  </si>
+  <si>
+    <t>Iver</t>
+  </si>
+  <si>
+    <t>Ivybridge</t>
+  </si>
+  <si>
+    <t>Kemble</t>
+  </si>
+  <si>
+    <t>Keyham</t>
+  </si>
+  <si>
+    <t>Keynsham</t>
+  </si>
+  <si>
+    <t>Kidwelly</t>
+  </si>
+  <si>
+    <t>Kingham</t>
+  </si>
+  <si>
+    <t>Kings Nympton</t>
+  </si>
+  <si>
+    <t>Kings Sutton</t>
+  </si>
+  <si>
+    <t>Kintbury</t>
+  </si>
+  <si>
+    <t>Langley</t>
+  </si>
+  <si>
+    <t>Lapford</t>
+  </si>
+  <si>
+    <t>Lawrence Hill</t>
+  </si>
+  <si>
+    <t>Ledbury</t>
+  </si>
+  <si>
+    <t>Lelant</t>
+  </si>
+  <si>
+    <t>Lelant Saltings</t>
+  </si>
+  <si>
+    <t>Liskeard</t>
+  </si>
+  <si>
+    <t>Llanelli</t>
+  </si>
+  <si>
+    <t>London Paddington</t>
+  </si>
+  <si>
+    <t>Looe</t>
+  </si>
+  <si>
+    <t>Lostwithiel</t>
+  </si>
+  <si>
+    <t>Luxulyan</t>
+  </si>
+  <si>
+    <t>Lympstone Commando</t>
+  </si>
+  <si>
+    <t>Lympstone Village</t>
+  </si>
+  <si>
+    <t>Maiden Newton</t>
+  </si>
+  <si>
+    <t>Maidenhead</t>
+  </si>
+  <si>
+    <t>Malvern Link</t>
+  </si>
+  <si>
+    <t>Marlow</t>
+  </si>
+  <si>
+    <t>Melksham</t>
+  </si>
+  <si>
+    <t>Menheniot</t>
+  </si>
+  <si>
+    <t>Midgham</t>
+  </si>
+  <si>
+    <t>Montpelier</t>
+  </si>
+  <si>
+    <t>Morchard Road</t>
+  </si>
+  <si>
+    <t>Moreton-In-Marsh</t>
+  </si>
+  <si>
+    <t>Mortimer</t>
+  </si>
+  <si>
+    <t>Nailsea &amp;amp; Backwell</t>
+  </si>
+  <si>
+    <t>Neath</t>
+  </si>
+  <si>
+    <t>Newbury</t>
+  </si>
+  <si>
+    <t>Newbury Racecourse</t>
+  </si>
+  <si>
+    <t>Newport South Wales</t>
+  </si>
+  <si>
+    <t>Newquay</t>
+  </si>
+  <si>
+    <t>Newton Abbot</t>
+  </si>
+  <si>
+    <t>Newton St Cyres</t>
+  </si>
+  <si>
+    <t>North Camp</t>
+  </si>
+  <si>
+    <t>Okehampton</t>
+  </si>
+  <si>
+    <t>Oldfield Park</t>
+  </si>
+  <si>
+    <t>Oxford</t>
+  </si>
+  <si>
+    <t>Paignton</t>
+  </si>
+  <si>
+    <t>Pangbourne</t>
+  </si>
+  <si>
+    <t>Par</t>
+  </si>
+  <si>
+    <t>Parson Street</t>
+  </si>
+  <si>
+    <t>Patchway</t>
+  </si>
+  <si>
+    <t>Pembrey &amp;amp; Burry Port</t>
+  </si>
+  <si>
+    <t>Penmere</t>
+  </si>
+  <si>
+    <t>Penryn</t>
+  </si>
+  <si>
+    <t>Penzance</t>
+  </si>
+  <si>
+    <t>Perranwell</t>
+  </si>
+  <si>
+    <t>Pershore</t>
+  </si>
+  <si>
+    <t>Pewsey</t>
+  </si>
+  <si>
+    <t>Pilning</t>
+  </si>
+  <si>
+    <t>Plymouth</t>
+  </si>
+  <si>
+    <t>Polsloe Bridge</t>
+  </si>
+  <si>
+    <t>Port Talbot Parkway</t>
+  </si>
+  <si>
+    <t>Portsmouth Arms</t>
+  </si>
+  <si>
+    <t>Quintrell Downs</t>
+  </si>
+  <si>
+    <t>Radley</t>
+  </si>
+  <si>
+    <t>Reading West</t>
+  </si>
+  <si>
+    <t>Redhill</t>
+  </si>
+  <si>
+    <t>Redland</t>
+  </si>
+  <si>
+    <t>Redruth</t>
+  </si>
+  <si>
+    <t>Reigate</t>
+  </si>
+  <si>
+    <t>Roche</t>
+  </si>
+  <si>
+    <t>Saltash</t>
+  </si>
+  <si>
+    <t>Sandhurst</t>
+  </si>
+  <si>
+    <t>Sandplace</t>
+  </si>
+  <si>
+    <t>Sea Mills</t>
+  </si>
+  <si>
+    <t>Severn Beach</t>
+  </si>
+  <si>
+    <t>Severn Tunnel Jn</t>
+  </si>
+  <si>
+    <t>Shalford</t>
+  </si>
+  <si>
+    <t>Shiplake</t>
+  </si>
+  <si>
+    <t>Shipton</t>
+  </si>
+  <si>
+    <t>Shirehampton</t>
+  </si>
+  <si>
+    <t>Shoreham-By-Sea</t>
+  </si>
+  <si>
+    <t>Slough</t>
+  </si>
+  <si>
+    <t>St Andrews Road</t>
+  </si>
+  <si>
+    <t>St Austell</t>
+  </si>
+  <si>
+    <t>St Budeaux Ferry Road</t>
+  </si>
+  <si>
+    <t>St Budeaux Victoria Road</t>
+  </si>
+  <si>
+    <t>St Columb Road</t>
+  </si>
+  <si>
+    <t>St Erth</t>
+  </si>
+  <si>
+    <t>St Germans</t>
+  </si>
+  <si>
+    <t>St James' Park</t>
+  </si>
+  <si>
+    <t>St Keyne</t>
+  </si>
+  <si>
+    <t>Stapleton Road</t>
+  </si>
+  <si>
+    <t>Starcross</t>
+  </si>
+  <si>
+    <t>Stonehouse</t>
+  </si>
+  <si>
+    <t>Stroud</t>
+  </si>
+  <si>
+    <t>Swansea</t>
+  </si>
+  <si>
+    <t>Swindon</t>
+  </si>
+  <si>
+    <t>Tackley</t>
+  </si>
+  <si>
+    <t>Taplow</t>
+  </si>
+  <si>
+    <t>Taunton</t>
+  </si>
+  <si>
+    <t>Teignmouth</t>
+  </si>
+  <si>
+    <t>Thatcham</t>
+  </si>
+  <si>
+    <t>Theale</t>
+  </si>
+  <si>
+    <t>Thornford</t>
+  </si>
+  <si>
+    <t>Tilehurst</t>
+  </si>
+  <si>
+    <t>Tiverton Parkway</t>
+  </si>
+  <si>
+    <t>Topsham</t>
+  </si>
+  <si>
+    <t>Torquay</t>
+  </si>
+  <si>
+    <t>Torre</t>
+  </si>
+  <si>
+    <t>Totnes</t>
+  </si>
+  <si>
+    <t>Truro</t>
+  </si>
+  <si>
+    <t>Twyford</t>
+  </si>
+  <si>
+    <t>Umberleigh</t>
+  </si>
+  <si>
+    <t>Wargrave</t>
+  </si>
+  <si>
+    <t>Westbury</t>
+  </si>
+  <si>
+    <t>Weston Milton</t>
+  </si>
+  <si>
+    <t>Weston-super-Mare</t>
+  </si>
+  <si>
+    <t>Windsor &amp;amp; Eton Central</t>
+  </si>
+  <si>
+    <t>Worcester Foregate Street</t>
+  </si>
+  <si>
+    <t>Worcester Shrub Hill</t>
+  </si>
+  <si>
+    <t>Worle</t>
+  </si>
+  <si>
+    <t>Yate</t>
+  </si>
+  <si>
+    <t>Yatton</t>
+  </si>
+  <si>
+    <t>Yeoford</t>
+  </si>
+  <si>
+    <t>Yeovil Pen Mill</t>
+  </si>
+  <si>
+    <t>Yetminster</t>
   </si>
 </sst>
 </file>
@@ -3404,8 +5688,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -3416,9 +5702,11 @@
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3750,8 +6038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D606"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B98" sqref="B98"/>
+    <sheetView showRuler="0" topLeftCell="B584" workbookViewId="0">
+      <selection activeCell="B603" sqref="B603"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -10596,8 +12884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C370"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView showRuler="0" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -14686,8 +16974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A187"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A156" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="D184" sqref="D184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -16757,4 +19045,4260 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A63"/>
+  <sheetViews>
+    <sheetView showRuler="0" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="34.1640625" customWidth="1"/>
+    <col min="8" max="8" width="30.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B209"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="D182" sqref="D182"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="39.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>219</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>220</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>450</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>348</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>920</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>520</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>521</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>235</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>101</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>247</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>536</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>537</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>538</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>541</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>542</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>543</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>188</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>378</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>381</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
+        <v>451</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B102" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B104" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B105" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B106" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B107" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B108" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B109" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B110" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" t="s">
+        <v>384</v>
+      </c>
+      <c r="B111" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B112" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B113" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B114" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B115" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B116" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" t="s">
+        <v>281</v>
+      </c>
+      <c r="B117" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" t="s">
+        <v>390</v>
+      </c>
+      <c r="B118" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B119" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B120" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" t="s">
+        <v>394</v>
+      </c>
+      <c r="B121" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B122" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" t="s">
+        <v>488</v>
+      </c>
+      <c r="B123" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" t="s">
+        <v>285</v>
+      </c>
+      <c r="B124" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B125" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B126" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B127" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B128" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B129" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B130" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B131" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B132" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B133" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B134" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" t="s">
+        <v>172</v>
+      </c>
+      <c r="B135" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" t="s">
+        <v>656</v>
+      </c>
+      <c r="B136" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" t="s">
+        <v>410</v>
+      </c>
+      <c r="B137" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B138" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" t="s">
+        <v>344</v>
+      </c>
+      <c r="B139" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" t="s">
+        <v>411</v>
+      </c>
+      <c r="B140" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B141" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B142" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B143" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B144" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B145" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B146" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B147" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B148" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B149" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B150" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B151" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B152" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B153" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B154" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B155" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B156" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B157" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B158" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B159" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" t="s">
+        <v>504</v>
+      </c>
+      <c r="B160" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" t="s">
+        <v>505</v>
+      </c>
+      <c r="B161" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B162" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B163" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B164" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" t="s">
+        <v>569</v>
+      </c>
+      <c r="B165" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B166" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B167" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B168" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" t="s">
+        <v>431</v>
+      </c>
+      <c r="B169" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" t="s">
+        <v>573</v>
+      </c>
+      <c r="B170" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B171" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" t="s">
+        <v>574</v>
+      </c>
+      <c r="B172" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B173" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" t="s">
+        <v>506</v>
+      </c>
+      <c r="B174" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B175" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B176" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" t="s">
+        <v>507</v>
+      </c>
+      <c r="B177" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B178" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B179" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" t="s">
+        <v>197</v>
+      </c>
+      <c r="B180" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B181" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B182" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B183" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" t="s">
+        <v>199</v>
+      </c>
+      <c r="B184" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B185" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B186" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B187" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" t="s">
+        <v>510</v>
+      </c>
+      <c r="B188" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B189" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B190" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B191" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B192" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B193" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" t="s">
+        <v>514</v>
+      </c>
+      <c r="B194" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" t="s">
+        <v>331</v>
+      </c>
+      <c r="B195" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B196" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B197" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B198" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B199" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B200" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B201" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B202" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B203" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B204" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B205" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" t="s">
+        <v>446</v>
+      </c>
+      <c r="B206" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B207" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B208" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B209" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A175"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="30.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" t="s">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" t="s">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" t="s">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" t="s">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" t="s">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" t="s">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" t="s">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" t="s">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" t="s">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" t="s">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" t="s">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" t="s">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" t="s">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" t="s">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A260"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A230" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="37.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" t="s">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" t="s">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" t="s">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" t="s">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" t="s">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" t="s">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" t="s">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" t="s">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" t="s">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" t="s">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" t="s">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" t="s">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" t="s">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" t="s">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" t="s">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" t="s">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" t="s">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" t="s">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" t="s">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" t="s">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" t="s">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" t="s">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" t="s">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" t="s">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" t="s">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" t="s">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" t="s">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" t="s">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" t="s">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" t="s">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" t="s">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" t="s">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" t="s">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" t="s">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" t="s">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" t="s">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" t="s">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" t="s">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" t="s">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" t="s">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" t="s">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" t="s">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" t="s">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" t="s">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" t="s">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" t="s">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" t="s">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" t="s">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" t="s">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" t="s">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" t="s">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" t="s">
+        <v>1796</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" t="s">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" t="s">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" t="s">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" t="s">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170" t="s">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" t="s">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175" t="s">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" t="s">
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180" t="s">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" t="s">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183" t="s">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184" t="s">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185" t="s">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188" t="s">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190" t="s">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191" t="s">
+        <v>1817</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192" t="s">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" t="s">
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194" t="s">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195" t="s">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196" t="s">
+        <v>1822</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197" t="s">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198" t="s">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199" t="s">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1">
+      <c r="A201" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1">
+      <c r="A202" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1">
+      <c r="A203" t="s">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1">
+      <c r="A204" t="s">
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1">
+      <c r="A205" t="s">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1">
+      <c r="A206" t="s">
+        <v>1829</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1">
+      <c r="A207" t="s">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1">
+      <c r="A208" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1">
+      <c r="A209" t="s">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1">
+      <c r="A210" t="s">
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1">
+      <c r="A211" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1">
+      <c r="A212" t="s">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1">
+      <c r="A213" t="s">
+        <v>1834</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1">
+      <c r="A214" t="s">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1">
+      <c r="A215" t="s">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1">
+      <c r="A216" t="s">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1">
+      <c r="A217" t="s">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1">
+      <c r="A218" t="s">
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1">
+      <c r="A219" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1">
+      <c r="A220" t="s">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1">
+      <c r="A221" t="s">
+        <v>1841</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1">
+      <c r="A222" t="s">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1">
+      <c r="A223" t="s">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1">
+      <c r="A224" t="s">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1">
+      <c r="A225" t="s">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1">
+      <c r="A226" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1">
+      <c r="A227" t="s">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1">
+      <c r="A228" t="s">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1">
+      <c r="A229" t="s">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1">
+      <c r="A230" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1">
+      <c r="A231" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1">
+      <c r="A232" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1">
+      <c r="A233" t="s">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1">
+      <c r="A234" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1">
+      <c r="A235" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1">
+      <c r="A236" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1">
+      <c r="A237" t="s">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1">
+      <c r="A238" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1">
+      <c r="A239" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1">
+      <c r="A240" t="s">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1">
+      <c r="A241" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1">
+      <c r="A242" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1">
+      <c r="A243" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1">
+      <c r="A244" t="s">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1">
+      <c r="A245" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1">
+      <c r="A246" t="s">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1">
+      <c r="A247" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1">
+      <c r="A248" t="s">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1">
+      <c r="A249" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1">
+      <c r="A250" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1">
+      <c r="A251" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1">
+      <c r="A252" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1">
+      <c r="A253" t="s">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1">
+      <c r="A254" t="s">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1">
+      <c r="A255" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1">
+      <c r="A256" t="s">
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1">
+      <c r="A257" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1">
+      <c r="A258" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1">
+      <c r="A259" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1">
+      <c r="A260" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>